--- a/jupyter_notebooks/PythonBible_Samples/MangalamCem.xlsx
+++ b/jupyter_notebooks/PythonBible_Samples/MangalamCem.xlsx
@@ -25307,7 +25307,7 @@
         <v>302.5499877929688</v>
       </c>
       <c r="F1083">
-        <v>110916</v>
+        <v>111266</v>
       </c>
       <c r="G1083">
         <v>302.5499877929688</v>
